--- a/Clue_Board/clueboardAdj.xlsx
+++ b/Clue_Board/clueboardAdj.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="clueboard" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>DD</t>
   </si>
   <si>
-    <t>RD</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>Pink: test targets</t>
+  </si>
+  <si>
+    <t>RU</t>
   </si>
 </sst>
 </file>
@@ -304,10 +304,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -317,6 +313,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -626,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,7 +669,7 @@
       <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="27" t="s">
         <v>1</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>1</v>
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>1</v>
@@ -1018,7 +1018,7 @@
       <c r="E6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="26" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -1069,7 +1069,7 @@
       <c r="V6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="W6" s="28" t="s">
+      <c r="W6" s="26" t="s">
         <v>1</v>
       </c>
       <c r="X6" s="11">
@@ -1077,7 +1077,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1377,7 +1377,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>7</v>
@@ -1437,21 +1437,21 @@
         <v>1</v>
       </c>
       <c r="V11" s="8" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="W11" s="8" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="X11" s="11">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
@@ -1496,25 +1496,25 @@
         <v>1</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X12" s="11">
         <v>11</v>
@@ -1561,34 +1561,34 @@
         <v>1</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X13" s="11">
         <v>12</v>
@@ -1614,10 +1614,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>1</v>
@@ -1635,34 +1635,34 @@
         <v>1</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X14" s="11">
         <v>13</v>
@@ -1709,34 +1709,34 @@
         <v>1</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W15" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X15" s="11">
         <v>14</v>
@@ -1744,10 +1744,10 @@
     </row>
     <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>1</v>
@@ -1771,13 +1771,13 @@
         <v>1</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>1</v>
@@ -1818,40 +1818,40 @@
     </row>
     <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>1</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>1</v>
@@ -1865,11 +1865,11 @@
       <c r="P17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="Q17" s="28" t="s">
-        <v>19</v>
+      <c r="Q17" s="26" t="s">
+        <v>18</v>
       </c>
       <c r="R17" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S17" s="4" t="s">
         <v>1</v>
@@ -1892,73 +1892,73 @@
     </row>
     <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>1</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>1</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X18" s="11">
         <v>17</v>
@@ -1966,73 +1966,73 @@
     </row>
     <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>1</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>1</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X19" s="11">
         <v>18</v>
@@ -2040,73 +2040,73 @@
     </row>
     <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="26" t="s">
         <v>1</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>1</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X20" s="11">
         <v>19</v>
@@ -2184,39 +2184,39 @@
       </c>
     </row>
     <row r="23" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="E25" s="17"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
+      <c r="A26" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
       <c r="E26" s="18"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -2226,9 +2226,9 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="26"/>
+        <v>24</v>
+      </c>
+      <c r="D28" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="3">
